--- a/05_results_graphs/AIC_megatable.xlsx
+++ b/05_results_graphs/AIC_megatable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\r-projects\Offline_Projects\fire_rare_reptiles\rare_reptiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\r-projects\Offline_Projects\fire_rare_reptiles\rare_reptiles\05_results_graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB48A4-12C6-4449-91B8-D95704856854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A9079-2CD0-4B16-952C-FC4EDEB23AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Modnames</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>fire + location</t>
+  </si>
+  <si>
+    <t>Richness Lowest 25%</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Richness Max. 5%</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -735,6 +744,37 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -782,7 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -829,6 +869,16 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1184,15 +1234,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
@@ -1892,6 +1942,226 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>46.970176230543203</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.706342330047532</v>
+      </c>
+      <c r="H26" s="9">
+        <v>-20.939633569817001</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.706342330047532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="40">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13">
+        <v>49.835085747246097</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2.8649095167029501</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.23872219709714701</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.16861959293166501</v>
+      </c>
+      <c r="H27" s="13">
+        <v>-18.695320651400799</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0.87496192297919695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="40">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13">
+        <v>50.440260107803603</v>
+      </c>
+      <c r="E28" s="13">
+        <v>3.4700838772604601</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.17639280245869601</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.124593703092289</v>
+      </c>
+      <c r="H28" s="13">
+        <v>-16.470130053901801</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.99955562607148596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="38">
+        <v>61.7125540232907</v>
+      </c>
+      <c r="E29" s="38">
+        <v>14.742377792747501</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="38">
+        <v>-14.522943678312</v>
+      </c>
+      <c r="I29" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="37">
+        <v>62.584552373821801</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37">
+        <v>1</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0.80157850123641705</v>
+      </c>
+      <c r="H30" s="37">
+        <v>-28.7468216414563</v>
+      </c>
+      <c r="I30" s="37">
+        <v>0.80157850123641705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="40">
+        <v>4</v>
+      </c>
+      <c r="D31" s="13">
+        <v>65.531663339999</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2.9471109661772199</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.22910944058855201</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.183649202006086</v>
+      </c>
+      <c r="H31" s="13">
+        <v>-26.5436094477773</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0.98522770324250297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="40">
+        <v>5</v>
+      </c>
+      <c r="D32" s="13">
+        <v>70.573243612423497</v>
+      </c>
+      <c r="E32" s="13">
+        <v>7.9886912386017697</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1.84194958303922E-2</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1.47646718612562E-2</v>
+      </c>
+      <c r="H32" s="13">
+        <v>-26.536621806211802</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.99999237510375905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7</v>
+      </c>
+      <c r="D33" s="38">
+        <v>85.710391322771699</v>
+      </c>
+      <c r="E33" s="38">
+        <v>23.125838948949902</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="38">
+        <v>-26.521862328052499</v>
+      </c>
+      <c r="I33" s="38">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
